--- a/compras/relatorio_categorias_2024.xlsx
+++ b/compras/relatorio_categorias_2024.xlsx
@@ -99,13 +99,13 @@
     <t>RELATORIO RESUMO GERAL CLINICA MAUÁ - 2024</t>
   </si>
   <si>
+    <t>ARMAçõES</t>
+  </si>
+  <si>
     <t>RELATORIO RESUMO GERAL CLINICA JARDIM - 2024</t>
   </si>
   <si>
     <t>RELATORIO RESUMO GERAL ÓTICA MATRIZ - 2024</t>
-  </si>
-  <si>
-    <t>ARMAçõES</t>
   </si>
   <si>
     <t>ESTOJO DE OCULOS</t>
@@ -574,10 +574,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:P60"/>
+  <dimension ref="A1:P62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B60" sqref="B60"/>
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -711,11 +711,13 @@
       <c r="J4" s="6">
         <v>8973.3</v>
       </c>
-      <c r="K4" s="6"/>
+      <c r="K4" s="6">
+        <v>4412.52</v>
+      </c>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
       <c r="N4" s="8">
-        <v>39370.68</v>
+        <v>43783.2</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -744,12 +746,12 @@
         <v>689.0</v>
       </c>
       <c r="K5" s="6">
-        <v>109.0</v>
+        <v>4500.0</v>
       </c>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="8">
-        <v>122059.78</v>
+        <v>126450.78</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -777,11 +779,13 @@
       <c r="J6" s="6">
         <v>1264.68</v>
       </c>
-      <c r="K6" s="6"/>
+      <c r="K6" s="6">
+        <v>264.0</v>
+      </c>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
       <c r="N6" s="8">
-        <v>5202.06</v>
+        <v>5466.06</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -806,12 +810,12 @@
         <v>4369.1</v>
       </c>
       <c r="K7" s="6">
-        <v>41.9</v>
+        <v>1041.79</v>
       </c>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="8">
-        <v>5848.72</v>
+        <v>6848.61</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -837,11 +841,13 @@
       <c r="J8" s="6">
         <v>2180.22</v>
       </c>
-      <c r="K8" s="6"/>
+      <c r="K8" s="6">
+        <v>1247.6</v>
+      </c>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
       <c r="N8" s="8">
-        <v>9866.07</v>
+        <v>11113.67</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -870,12 +876,12 @@
         <v>6486.76</v>
       </c>
       <c r="K9" s="6">
-        <v>9667.93</v>
+        <v>10447.11</v>
       </c>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
       <c r="N9" s="8">
-        <v>47695.18</v>
+        <v>48474.36</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -904,12 +910,12 @@
         <v>102.8</v>
       </c>
       <c r="K10" s="6">
-        <v>403.23</v>
+        <v>1067.53</v>
       </c>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="N10" s="8">
-        <v>11886.23</v>
+        <v>12550.53</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -962,12 +968,12 @@
         <v>25688.73</v>
       </c>
       <c r="K12" s="7">
-        <v>10222.06</v>
+        <v>22980.55</v>
       </c>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
       <c r="N12" s="9">
-        <v>244512.75</v>
+        <v>257271.24</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1012,7 +1018,7 @@
       </c>
       <c r="K13" s="7">
         <f>IFERROR(AVERAGE(K3:K11),"")</f>
-        <v>2555.515</v>
+        <v>3282.9357142857</v>
       </c>
       <c r="L13" s="7" t="str">
         <f>IFERROR(AVERAGE(L3:L11),"")</f>
@@ -1024,7 +1030,7 @@
       </c>
       <c r="N13" s="9">
         <f>IFERROR(AVERAGE(N3:N11),"")</f>
-        <v>27168.083333333</v>
+        <v>28585.693333333</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1091,75 +1097,71 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="4" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
-      <c r="E17" s="6">
-        <v>2745.77</v>
-      </c>
-      <c r="F17" s="6">
-        <v>7232.27</v>
-      </c>
-      <c r="G17" s="6">
-        <v>4669.0</v>
-      </c>
-      <c r="H17" s="6">
-        <v>3471.47</v>
-      </c>
-      <c r="I17" s="6">
-        <v>2627.34</v>
-      </c>
-      <c r="J17" s="6">
-        <v>6223.63</v>
-      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
       <c r="K17" s="6">
-        <v>616.74</v>
+        <v>276.36</v>
       </c>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
       <c r="N17" s="8">
-        <v>27586.22</v>
+        <v>276.36</v>
       </c>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
+      <c r="E18" s="6">
+        <v>2745.77</v>
+      </c>
+      <c r="F18" s="6">
+        <v>7232.27</v>
+      </c>
       <c r="G18" s="6">
-        <v>1062.0</v>
-      </c>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
+        <v>4669.0</v>
+      </c>
+      <c r="H18" s="6">
+        <v>3471.47</v>
+      </c>
+      <c r="I18" s="6">
+        <v>2627.34</v>
+      </c>
+      <c r="J18" s="6">
+        <v>6223.63</v>
+      </c>
+      <c r="K18" s="6">
+        <v>4264.8</v>
+      </c>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
       <c r="N18" s="8">
-        <v>1062.0</v>
+        <v>31234.28</v>
       </c>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="6">
-        <v>2258.77</v>
-      </c>
-      <c r="F19" s="6">
-        <v>5703.5</v>
-      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
       <c r="G19" s="6">
-        <v>544.69</v>
+        <v>1062.0</v>
       </c>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
@@ -1168,36 +1170,38 @@
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
       <c r="N19" s="8">
-        <v>8506.96</v>
+        <v>1062.0</v>
       </c>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
+      <c r="E20" s="6">
+        <v>2258.77</v>
+      </c>
+      <c r="F20" s="6">
+        <v>5703.5</v>
+      </c>
       <c r="G20" s="6">
-        <v>174.74</v>
+        <v>544.69</v>
       </c>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
-      <c r="J20" s="6">
-        <v>480.0</v>
-      </c>
+      <c r="J20" s="6"/>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
       <c r="N20" s="8">
-        <v>654.74</v>
+        <v>8506.96</v>
       </c>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -1205,1081 +1209,1133 @@
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6">
-        <v>192.65</v>
+        <v>174.74</v>
       </c>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6">
-        <v>767.19</v>
-      </c>
+      <c r="J21" s="6">
+        <v>480.0</v>
+      </c>
+      <c r="K21" s="6"/>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
       <c r="N21" s="8">
-        <v>959.84</v>
+        <v>654.74</v>
       </c>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
-      <c r="E22" s="6">
-        <v>299.7</v>
-      </c>
-      <c r="F22" s="6">
-        <v>354.9</v>
-      </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6">
-        <v>379.6</v>
-      </c>
-      <c r="I22" s="6">
-        <v>379.6</v>
-      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6">
+        <v>192.65</v>
+      </c>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6">
-        <v>1589.96</v>
+        <v>767.19</v>
       </c>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
       <c r="N22" s="8">
+        <v>959.84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6">
+        <v>299.7</v>
+      </c>
+      <c r="F23" s="6">
+        <v>354.9</v>
+      </c>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6">
+        <v>379.6</v>
+      </c>
+      <c r="I23" s="6">
+        <v>379.6</v>
+      </c>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6">
+        <v>1589.96</v>
+      </c>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="8">
         <v>3003.76</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
-      <c r="A23" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7">
-        <v>5304.24</v>
-      </c>
-      <c r="F23" s="7">
-        <v>13290.67</v>
-      </c>
-      <c r="G23" s="7">
-        <v>6643.08</v>
-      </c>
-      <c r="H23" s="7">
-        <v>3851.07</v>
-      </c>
-      <c r="I23" s="7">
-        <v>3006.94</v>
-      </c>
-      <c r="J23" s="7">
-        <v>6703.63</v>
-      </c>
-      <c r="K23" s="7">
-        <v>2973.89</v>
-      </c>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="9">
-        <v>41773.52</v>
       </c>
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7">
+        <v>5304.24</v>
+      </c>
+      <c r="F24" s="7">
+        <v>13290.67</v>
+      </c>
+      <c r="G24" s="7">
+        <v>6643.08</v>
+      </c>
+      <c r="H24" s="7">
+        <v>3851.07</v>
+      </c>
+      <c r="I24" s="7">
+        <v>3006.94</v>
+      </c>
+      <c r="J24" s="7">
+        <v>6703.63</v>
+      </c>
+      <c r="K24" s="7">
+        <v>6898.31</v>
+      </c>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="9">
+        <v>45697.94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="7" t="str">
-        <f>IFERROR(AVERAGE(B17:B22),"")</f>
+      <c r="B25" s="7" t="str">
+        <f>IFERROR(AVERAGE(B17:B23),"")</f>
         <v/>
       </c>
-      <c r="C24" s="7" t="str">
-        <f>IFERROR(AVERAGE(C17:C22),"")</f>
+      <c r="C25" s="7" t="str">
+        <f>IFERROR(AVERAGE(C17:C23),"")</f>
         <v/>
       </c>
-      <c r="D24" s="7" t="str">
-        <f>IFERROR(AVERAGE(D17:D22),"")</f>
+      <c r="D25" s="7" t="str">
+        <f>IFERROR(AVERAGE(D17:D23),"")</f>
         <v/>
       </c>
-      <c r="E24" s="7">
-        <f>IFERROR(AVERAGE(E17:E22),"")</f>
+      <c r="E25" s="7">
+        <f>IFERROR(AVERAGE(E17:E23),"")</f>
         <v>1768.08</v>
       </c>
-      <c r="F24" s="7">
-        <f>IFERROR(AVERAGE(F17:F22),"")</f>
+      <c r="F25" s="7">
+        <f>IFERROR(AVERAGE(F17:F23),"")</f>
         <v>4430.2233333333</v>
       </c>
-      <c r="G24" s="7">
-        <f>IFERROR(AVERAGE(G17:G22),"")</f>
+      <c r="G25" s="7">
+        <f>IFERROR(AVERAGE(G17:G23),"")</f>
         <v>1328.616</v>
       </c>
-      <c r="H24" s="7">
-        <f>IFERROR(AVERAGE(H17:H22),"")</f>
+      <c r="H25" s="7">
+        <f>IFERROR(AVERAGE(H17:H23),"")</f>
         <v>1925.535</v>
       </c>
-      <c r="I24" s="7">
-        <f>IFERROR(AVERAGE(I17:I22),"")</f>
+      <c r="I25" s="7">
+        <f>IFERROR(AVERAGE(I17:I23),"")</f>
         <v>1503.47</v>
       </c>
-      <c r="J24" s="7">
-        <f>IFERROR(AVERAGE(J17:J22),"")</f>
+      <c r="J25" s="7">
+        <f>IFERROR(AVERAGE(J17:J23),"")</f>
         <v>3351.815</v>
       </c>
-      <c r="K24" s="7">
-        <f>IFERROR(AVERAGE(K17:K22),"")</f>
-        <v>991.29666666667</v>
-      </c>
-      <c r="L24" s="7" t="str">
-        <f>IFERROR(AVERAGE(L17:L22),"")</f>
+      <c r="K25" s="7">
+        <f>IFERROR(AVERAGE(K17:K23),"")</f>
+        <v>1724.5775</v>
+      </c>
+      <c r="L25" s="7" t="str">
+        <f>IFERROR(AVERAGE(L17:L23),"")</f>
         <v/>
       </c>
-      <c r="M24" s="7" t="str">
-        <f>IFERROR(AVERAGE(M17:M22),"")</f>
+      <c r="M25" s="7" t="str">
+        <f>IFERROR(AVERAGE(M17:M23),"")</f>
         <v/>
       </c>
-      <c r="N24" s="9">
-        <f>IFERROR(AVERAGE(N17:N22),"")</f>
-        <v>6962.2533333333</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16">
-      <c r="A26" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
+      <c r="N25" s="9">
+        <f>IFERROR(AVERAGE(N17:N23),"")</f>
+        <v>6528.2771428571</v>
+      </c>
     </row>
     <row r="27" spans="1:16">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B28" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C28" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E28" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F28" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G28" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="H28" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="I28" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="J28" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="K28" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L27" s="3" t="s">
+      <c r="L28" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M27" s="3" t="s">
+      <c r="M28" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N27" s="3" t="s">
+      <c r="N28" s="3" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16">
-      <c r="A28" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6">
-        <v>915.7</v>
-      </c>
-      <c r="F28" s="6">
-        <v>632.38</v>
-      </c>
-      <c r="G28" s="6">
-        <v>552.72</v>
-      </c>
-      <c r="H28" s="6">
-        <v>1339.85</v>
-      </c>
-      <c r="I28" s="6">
-        <v>355.66</v>
-      </c>
-      <c r="J28" s="6">
-        <v>276.36</v>
-      </c>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="8">
-        <v>4072.67</v>
       </c>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
+      <c r="E29" s="6">
+        <v>915.7</v>
+      </c>
+      <c r="F29" s="6">
+        <v>632.38</v>
+      </c>
       <c r="G29" s="6">
-        <v>225.24</v>
-      </c>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
+        <v>552.72</v>
+      </c>
+      <c r="H29" s="6">
+        <v>1339.85</v>
+      </c>
+      <c r="I29" s="6">
+        <v>355.66</v>
+      </c>
+      <c r="J29" s="6">
+        <v>276.36</v>
+      </c>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
       <c r="N29" s="8">
-        <v>225.24</v>
+        <v>4072.67</v>
       </c>
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6">
-        <v>284.7</v>
-      </c>
+      <c r="G30" s="6">
+        <v>225.24</v>
+      </c>
+      <c r="H30" s="6"/>
       <c r="I30" s="6"/>
-      <c r="J30" s="6">
-        <v>284.7</v>
-      </c>
+      <c r="J30" s="6"/>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
       <c r="N30" s="8">
+        <v>225.24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6">
+        <v>284.7</v>
+      </c>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6">
+        <v>284.7</v>
+      </c>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="8">
         <v>569.4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16">
-      <c r="A31" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7">
-        <v>915.7</v>
-      </c>
-      <c r="F31" s="7">
-        <v>632.38</v>
-      </c>
-      <c r="G31" s="7">
-        <v>777.96</v>
-      </c>
-      <c r="H31" s="7">
-        <v>1624.55</v>
-      </c>
-      <c r="I31" s="7">
-        <v>355.66</v>
-      </c>
-      <c r="J31" s="7">
-        <v>561.06</v>
-      </c>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="9">
-        <v>4867.31</v>
       </c>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7">
+        <v>915.7</v>
+      </c>
+      <c r="F32" s="7">
+        <v>632.38</v>
+      </c>
+      <c r="G32" s="7">
+        <v>777.96</v>
+      </c>
+      <c r="H32" s="7">
+        <v>1624.55</v>
+      </c>
+      <c r="I32" s="7">
+        <v>355.66</v>
+      </c>
+      <c r="J32" s="7">
+        <v>561.06</v>
+      </c>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="9">
+        <v>4867.31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="7" t="str">
-        <f>IFERROR(AVERAGE(B28:B30),"")</f>
+      <c r="B33" s="7" t="str">
+        <f>IFERROR(AVERAGE(B29:B31),"")</f>
         <v/>
       </c>
-      <c r="C32" s="7" t="str">
-        <f>IFERROR(AVERAGE(C28:C30),"")</f>
+      <c r="C33" s="7" t="str">
+        <f>IFERROR(AVERAGE(C29:C31),"")</f>
         <v/>
       </c>
-      <c r="D32" s="7" t="str">
-        <f>IFERROR(AVERAGE(D28:D30),"")</f>
+      <c r="D33" s="7" t="str">
+        <f>IFERROR(AVERAGE(D29:D31),"")</f>
         <v/>
       </c>
-      <c r="E32" s="7">
-        <f>IFERROR(AVERAGE(E28:E30),"")</f>
+      <c r="E33" s="7">
+        <f>IFERROR(AVERAGE(E29:E31),"")</f>
         <v>915.7</v>
       </c>
-      <c r="F32" s="7">
-        <f>IFERROR(AVERAGE(F28:F30),"")</f>
+      <c r="F33" s="7">
+        <f>IFERROR(AVERAGE(F29:F31),"")</f>
         <v>632.38</v>
       </c>
-      <c r="G32" s="7">
-        <f>IFERROR(AVERAGE(G28:G30),"")</f>
+      <c r="G33" s="7">
+        <f>IFERROR(AVERAGE(G29:G31),"")</f>
         <v>388.98</v>
       </c>
-      <c r="H32" s="7">
-        <f>IFERROR(AVERAGE(H28:H30),"")</f>
+      <c r="H33" s="7">
+        <f>IFERROR(AVERAGE(H29:H31),"")</f>
         <v>812.275</v>
       </c>
-      <c r="I32" s="7">
-        <f>IFERROR(AVERAGE(I28:I30),"")</f>
+      <c r="I33" s="7">
+        <f>IFERROR(AVERAGE(I29:I31),"")</f>
         <v>355.66</v>
       </c>
-      <c r="J32" s="7">
-        <f>IFERROR(AVERAGE(J28:J30),"")</f>
+      <c r="J33" s="7">
+        <f>IFERROR(AVERAGE(J29:J31),"")</f>
         <v>280.53</v>
       </c>
-      <c r="K32" s="7" t="str">
-        <f>IFERROR(AVERAGE(K28:K30),"")</f>
+      <c r="K33" s="7" t="str">
+        <f>IFERROR(AVERAGE(K29:K31),"")</f>
         <v/>
       </c>
-      <c r="L32" s="7" t="str">
-        <f>IFERROR(AVERAGE(L28:L30),"")</f>
+      <c r="L33" s="7" t="str">
+        <f>IFERROR(AVERAGE(L29:L31),"")</f>
         <v/>
       </c>
-      <c r="M32" s="7" t="str">
-        <f>IFERROR(AVERAGE(M28:M30),"")</f>
+      <c r="M33" s="7" t="str">
+        <f>IFERROR(AVERAGE(M29:M31),"")</f>
         <v/>
       </c>
-      <c r="N32" s="9">
-        <f>IFERROR(AVERAGE(N28:N30),"")</f>
+      <c r="N33" s="9">
+        <f>IFERROR(AVERAGE(N29:N31),"")</f>
         <v>1622.4366666667</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
-      <c r="A34" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-    </row>
     <row r="35" spans="1:16">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B36" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C36" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D36" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="E36" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F35" s="11" t="s">
+      <c r="F36" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G35" s="11" t="s">
+      <c r="G36" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H35" s="11" t="s">
+      <c r="H36" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I35" s="11" t="s">
+      <c r="I36" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="J35" s="11" t="s">
+      <c r="J36" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="K35" s="11" t="s">
+      <c r="K36" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L35" s="11" t="s">
+      <c r="L36" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="M35" s="11" t="s">
+      <c r="M36" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="N35" s="11" t="s">
+      <c r="N36" s="11" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16">
-      <c r="A36" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6">
-        <v>4710.32</v>
-      </c>
-      <c r="F36" s="6">
-        <v>11499.86</v>
-      </c>
-      <c r="G36" s="6">
-        <v>6500.15</v>
-      </c>
-      <c r="H36" s="6">
-        <v>43986.83</v>
-      </c>
-      <c r="I36" s="6">
-        <v>18677.34</v>
-      </c>
-      <c r="J36" s="6">
-        <v>3866.23</v>
-      </c>
-      <c r="K36" s="6">
-        <v>9226.07</v>
-      </c>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="8">
-        <v>98466.8</v>
       </c>
     </row>
     <row r="37" spans="1:16">
       <c r="A37" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6">
-        <v>2289.2</v>
-      </c>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
+        <v>4710.32</v>
+      </c>
+      <c r="F37" s="6">
+        <v>11499.86</v>
+      </c>
+      <c r="G37" s="6">
+        <v>6500.15</v>
+      </c>
+      <c r="H37" s="6">
+        <v>43986.83</v>
+      </c>
+      <c r="I37" s="6">
+        <v>18677.34</v>
+      </c>
       <c r="J37" s="6">
-        <v>1990.0</v>
-      </c>
-      <c r="K37" s="6"/>
+        <v>3866.23</v>
+      </c>
+      <c r="K37" s="6">
+        <v>29761.78</v>
+      </c>
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
       <c r="N37" s="8">
-        <v>4279.2</v>
+        <v>119002.51</v>
       </c>
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
+      <c r="E38" s="6">
+        <v>2289.2</v>
+      </c>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
-      <c r="H38" s="6">
-        <v>755.0</v>
-      </c>
+      <c r="H38" s="6"/>
       <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
+      <c r="J38" s="6">
+        <v>1990.0</v>
+      </c>
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
       <c r="N38" s="8">
-        <v>755.0</v>
+        <v>4279.2</v>
       </c>
     </row>
     <row r="39" spans="1:16">
       <c r="A39" s="4" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
-      <c r="F39" s="6">
-        <v>500.0</v>
-      </c>
+      <c r="F39" s="6"/>
       <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
+      <c r="H39" s="6">
+        <v>755.0</v>
+      </c>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
+      <c r="K39" s="6">
+        <v>785.0</v>
+      </c>
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
       <c r="N39" s="8">
-        <v>500.0</v>
+        <v>1540.0</v>
       </c>
     </row>
     <row r="40" spans="1:16">
       <c r="A40" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6">
-        <v>95.96</v>
-      </c>
+      <c r="F40" s="6">
+        <v>500.0</v>
+      </c>
+      <c r="G40" s="6"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
-      <c r="K40" s="6">
-        <v>111.2</v>
-      </c>
+      <c r="K40" s="6"/>
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
       <c r="N40" s="8">
+        <v>500.0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6">
+        <v>110.0</v>
+      </c>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="8">
+        <v>110.0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6">
+        <v>95.96</v>
+      </c>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6">
+        <v>111.2</v>
+      </c>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="8">
         <v>207.16</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
-      <c r="A41" s="5" t="s">
+    <row r="43" spans="1:16">
+      <c r="A43" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7">
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7">
         <v>6999.52</v>
       </c>
-      <c r="F41" s="7">
+      <c r="F43" s="7">
         <v>11999.86</v>
       </c>
-      <c r="G41" s="7">
+      <c r="G43" s="7">
         <v>6596.11</v>
       </c>
-      <c r="H41" s="7">
+      <c r="H43" s="7">
         <v>44741.83</v>
       </c>
-      <c r="I41" s="7">
+      <c r="I43" s="7">
         <v>18677.34</v>
       </c>
-      <c r="J41" s="7">
-        <v>5856.23</v>
-      </c>
-      <c r="K41" s="7">
-        <v>9337.27</v>
-      </c>
-      <c r="L41" s="7"/>
-      <c r="M41" s="7"/>
-      <c r="N41" s="9">
-        <v>104208.16</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16">
-      <c r="A42" s="5" t="s">
+      <c r="J43" s="7">
+        <v>5966.23</v>
+      </c>
+      <c r="K43" s="7">
+        <v>30657.98</v>
+      </c>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="9">
+        <v>125638.87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B42" s="7" t="str">
-        <f>IFERROR(AVERAGE(B36:B40),"")</f>
+      <c r="B44" s="7" t="str">
+        <f>IFERROR(AVERAGE(B37:B42),"")</f>
         <v/>
       </c>
-      <c r="C42" s="7" t="str">
-        <f>IFERROR(AVERAGE(C36:C40),"")</f>
+      <c r="C44" s="7" t="str">
+        <f>IFERROR(AVERAGE(C37:C42),"")</f>
         <v/>
       </c>
-      <c r="D42" s="7" t="str">
-        <f>IFERROR(AVERAGE(D36:D40),"")</f>
+      <c r="D44" s="7" t="str">
+        <f>IFERROR(AVERAGE(D37:D42),"")</f>
         <v/>
       </c>
-      <c r="E42" s="7">
-        <f>IFERROR(AVERAGE(E36:E40),"")</f>
+      <c r="E44" s="7">
+        <f>IFERROR(AVERAGE(E37:E42),"")</f>
         <v>3499.76</v>
       </c>
-      <c r="F42" s="7">
-        <f>IFERROR(AVERAGE(F36:F40),"")</f>
+      <c r="F44" s="7">
+        <f>IFERROR(AVERAGE(F37:F42),"")</f>
         <v>5999.93</v>
       </c>
-      <c r="G42" s="7">
-        <f>IFERROR(AVERAGE(G36:G40),"")</f>
+      <c r="G44" s="7">
+        <f>IFERROR(AVERAGE(G37:G42),"")</f>
         <v>3298.055</v>
       </c>
-      <c r="H42" s="7">
-        <f>IFERROR(AVERAGE(H36:H40),"")</f>
+      <c r="H44" s="7">
+        <f>IFERROR(AVERAGE(H37:H42),"")</f>
         <v>22370.915</v>
       </c>
-      <c r="I42" s="7">
-        <f>IFERROR(AVERAGE(I36:I40),"")</f>
+      <c r="I44" s="7">
+        <f>IFERROR(AVERAGE(I37:I42),"")</f>
         <v>18677.34</v>
       </c>
-      <c r="J42" s="7">
-        <f>IFERROR(AVERAGE(J36:J40),"")</f>
-        <v>2928.115</v>
-      </c>
-      <c r="K42" s="7">
-        <f>IFERROR(AVERAGE(K36:K40),"")</f>
-        <v>4668.635</v>
-      </c>
-      <c r="L42" s="7" t="str">
-        <f>IFERROR(AVERAGE(L36:L40),"")</f>
+      <c r="J44" s="7">
+        <f>IFERROR(AVERAGE(J37:J42),"")</f>
+        <v>1988.7433333333</v>
+      </c>
+      <c r="K44" s="7">
+        <f>IFERROR(AVERAGE(K37:K42),"")</f>
+        <v>10219.326666667</v>
+      </c>
+      <c r="L44" s="7" t="str">
+        <f>IFERROR(AVERAGE(L37:L42),"")</f>
         <v/>
       </c>
-      <c r="M42" s="7" t="str">
-        <f>IFERROR(AVERAGE(M36:M40),"")</f>
+      <c r="M44" s="7" t="str">
+        <f>IFERROR(AVERAGE(M37:M42),"")</f>
         <v/>
       </c>
-      <c r="N42" s="9">
-        <f>IFERROR(AVERAGE(N36:N40),"")</f>
-        <v>20841.632</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16">
-      <c r="A44" s="10" t="s">
+      <c r="N44" s="9">
+        <f>IFERROR(AVERAGE(N37:N42),"")</f>
+        <v>20939.811666667</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4"/>
-    </row>
-    <row r="45" spans="1:16">
-      <c r="A45" s="11" t="s">
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B47" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C47" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D45" s="11" t="s">
+      <c r="D47" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E45" s="11" t="s">
+      <c r="E47" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F45" s="11" t="s">
+      <c r="F47" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G45" s="11" t="s">
+      <c r="G47" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H45" s="11" t="s">
+      <c r="H47" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I45" s="11" t="s">
+      <c r="I47" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="J45" s="11" t="s">
+      <c r="J47" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="K45" s="11" t="s">
+      <c r="K47" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L45" s="11" t="s">
+      <c r="L47" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="M45" s="11" t="s">
+      <c r="M47" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="N45" s="11" t="s">
+      <c r="N47" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
-      <c r="A46" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6">
+    <row r="48" spans="1:16">
+      <c r="A48" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6">
         <v>1448.82</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F48" s="6">
         <v>3814.76</v>
       </c>
-      <c r="G46" s="6">
+      <c r="G48" s="6">
         <v>943.93</v>
       </c>
-      <c r="H46" s="6">
+      <c r="H48" s="6">
         <v>9877.74</v>
       </c>
-      <c r="I46" s="6">
+      <c r="I48" s="6">
         <v>8730.98</v>
       </c>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6">
-        <v>1414.48</v>
-      </c>
-      <c r="L46" s="6"/>
-      <c r="M46" s="6"/>
-      <c r="N46" s="8">
-        <v>26230.71</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16">
-      <c r="A47" s="4" t="s">
+      <c r="J48" s="6"/>
+      <c r="K48" s="6">
+        <v>7758.38</v>
+      </c>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="8">
+        <v>32574.61</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6">
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6">
         <v>473.01</v>
       </c>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="6"/>
-      <c r="N47" s="8">
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="8">
         <v>473.01</v>
       </c>
     </row>
-    <row r="48" spans="1:16">
-      <c r="A48" s="5" t="s">
+    <row r="50" spans="1:16">
+      <c r="A50" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7">
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7">
         <v>1448.82</v>
       </c>
-      <c r="F48" s="7">
+      <c r="F50" s="7">
         <v>3814.76</v>
       </c>
-      <c r="G48" s="7">
+      <c r="G50" s="7">
         <v>943.93</v>
       </c>
-      <c r="H48" s="7">
+      <c r="H50" s="7">
         <v>9877.74</v>
       </c>
-      <c r="I48" s="7">
+      <c r="I50" s="7">
         <v>8730.98</v>
       </c>
-      <c r="J48" s="7">
+      <c r="J50" s="7">
         <v>473.01</v>
       </c>
-      <c r="K48" s="7">
-        <v>1414.48</v>
-      </c>
-      <c r="L48" s="7"/>
-      <c r="M48" s="7"/>
-      <c r="N48" s="9">
-        <v>26703.72</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16">
-      <c r="A49" s="5" t="s">
+      <c r="K50" s="7">
+        <v>7758.38</v>
+      </c>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="9">
+        <v>33047.62</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
+      <c r="A51" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="7" t="str">
-        <f>IFERROR(AVERAGE(B46:B47),"")</f>
+      <c r="B51" s="7" t="str">
+        <f>IFERROR(AVERAGE(B48:B49),"")</f>
         <v/>
       </c>
-      <c r="C49" s="7" t="str">
-        <f>IFERROR(AVERAGE(C46:C47),"")</f>
+      <c r="C51" s="7" t="str">
+        <f>IFERROR(AVERAGE(C48:C49),"")</f>
         <v/>
       </c>
-      <c r="D49" s="7" t="str">
-        <f>IFERROR(AVERAGE(D46:D47),"")</f>
+      <c r="D51" s="7" t="str">
+        <f>IFERROR(AVERAGE(D48:D49),"")</f>
         <v/>
       </c>
-      <c r="E49" s="7">
-        <f>IFERROR(AVERAGE(E46:E47),"")</f>
+      <c r="E51" s="7">
+        <f>IFERROR(AVERAGE(E48:E49),"")</f>
         <v>1448.82</v>
       </c>
-      <c r="F49" s="7">
-        <f>IFERROR(AVERAGE(F46:F47),"")</f>
+      <c r="F51" s="7">
+        <f>IFERROR(AVERAGE(F48:F49),"")</f>
         <v>3814.76</v>
       </c>
-      <c r="G49" s="7">
-        <f>IFERROR(AVERAGE(G46:G47),"")</f>
+      <c r="G51" s="7">
+        <f>IFERROR(AVERAGE(G48:G49),"")</f>
         <v>943.93</v>
       </c>
-      <c r="H49" s="7">
-        <f>IFERROR(AVERAGE(H46:H47),"")</f>
+      <c r="H51" s="7">
+        <f>IFERROR(AVERAGE(H48:H49),"")</f>
         <v>9877.74</v>
       </c>
-      <c r="I49" s="7">
-        <f>IFERROR(AVERAGE(I46:I47),"")</f>
+      <c r="I51" s="7">
+        <f>IFERROR(AVERAGE(I48:I49),"")</f>
         <v>8730.98</v>
       </c>
-      <c r="J49" s="7">
-        <f>IFERROR(AVERAGE(J46:J47),"")</f>
+      <c r="J51" s="7">
+        <f>IFERROR(AVERAGE(J48:J49),"")</f>
         <v>473.01</v>
       </c>
-      <c r="K49" s="7">
-        <f>IFERROR(AVERAGE(K46:K47),"")</f>
-        <v>1414.48</v>
-      </c>
-      <c r="L49" s="7" t="str">
-        <f>IFERROR(AVERAGE(L46:L47),"")</f>
+      <c r="K51" s="7">
+        <f>IFERROR(AVERAGE(K48:K49),"")</f>
+        <v>7758.38</v>
+      </c>
+      <c r="L51" s="7" t="str">
+        <f>IFERROR(AVERAGE(L48:L49),"")</f>
         <v/>
       </c>
-      <c r="M49" s="7" t="str">
-        <f>IFERROR(AVERAGE(M46:M47),"")</f>
+      <c r="M51" s="7" t="str">
+        <f>IFERROR(AVERAGE(M48:M49),"")</f>
         <v/>
       </c>
-      <c r="N49" s="9">
-        <f>IFERROR(AVERAGE(N46:N47),"")</f>
-        <v>13351.86</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16">
-      <c r="A51" s="10" t="s">
+      <c r="N51" s="9">
+        <f>IFERROR(AVERAGE(N48:N49),"")</f>
+        <v>16523.81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
+      <c r="A53" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
-      <c r="M51" s="4"/>
-      <c r="N51" s="4"/>
-    </row>
-    <row r="52" spans="1:16">
-      <c r="A52" s="11" t="s">
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
+    </row>
+    <row r="54" spans="1:16">
+      <c r="A54" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="B54" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="C54" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D52" s="11" t="s">
+      <c r="D54" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E52" s="11" t="s">
+      <c r="E54" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F52" s="11" t="s">
+      <c r="F54" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G52" s="11" t="s">
+      <c r="G54" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H52" s="11" t="s">
+      <c r="H54" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I52" s="11" t="s">
+      <c r="I54" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="J52" s="11" t="s">
+      <c r="J54" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="K52" s="11" t="s">
+      <c r="K54" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L52" s="11" t="s">
+      <c r="L54" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="M52" s="11" t="s">
+      <c r="M54" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="N52" s="11" t="s">
+      <c r="N54" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:16">
-      <c r="A53" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6">
+    <row r="55" spans="1:16">
+      <c r="A55" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6">
         <v>711.31</v>
       </c>
-      <c r="G53" s="6">
+      <c r="G55" s="6">
         <v>719.7</v>
       </c>
-      <c r="H53" s="6">
+      <c r="H55" s="6">
         <v>7663.68</v>
       </c>
-      <c r="I53" s="6">
+      <c r="I55" s="6">
         <v>4452.6</v>
       </c>
-      <c r="J53" s="6">
+      <c r="J55" s="6">
         <v>1809.43</v>
       </c>
-      <c r="K53" s="6"/>
-      <c r="L53" s="6"/>
-      <c r="M53" s="6"/>
-      <c r="N53" s="8">
-        <v>15356.72</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16">
-      <c r="A54" s="4" t="s">
+      <c r="K55" s="6">
+        <v>6328.65</v>
+      </c>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="8">
+        <v>21685.37</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
+      <c r="A56" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6">
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6">
         <v>438.0</v>
       </c>
-      <c r="K54" s="6"/>
-      <c r="L54" s="6"/>
-      <c r="M54" s="6"/>
-      <c r="N54" s="8">
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="6"/>
+      <c r="N56" s="8">
         <v>438.0</v>
       </c>
     </row>
-    <row r="55" spans="1:16">
-      <c r="A55" s="5" t="s">
+    <row r="57" spans="1:16">
+      <c r="A57" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7">
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7">
         <v>711.31</v>
       </c>
-      <c r="G55" s="7">
+      <c r="G57" s="7">
         <v>719.7</v>
       </c>
-      <c r="H55" s="7">
+      <c r="H57" s="7">
         <v>7663.68</v>
       </c>
-      <c r="I55" s="7">
+      <c r="I57" s="7">
         <v>4452.6</v>
       </c>
-      <c r="J55" s="7">
+      <c r="J57" s="7">
         <v>2247.43</v>
       </c>
-      <c r="K55" s="7"/>
-      <c r="L55" s="7"/>
-      <c r="M55" s="7"/>
-      <c r="N55" s="9">
-        <v>15794.72</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16">
-      <c r="A56" s="5" t="s">
+      <c r="K57" s="7">
+        <v>6328.65</v>
+      </c>
+      <c r="L57" s="7"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="9">
+        <v>22123.37</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
+      <c r="A58" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B56" s="7" t="str">
-        <f>IFERROR(AVERAGE(B53:B54),"")</f>
+      <c r="B58" s="7" t="str">
+        <f>IFERROR(AVERAGE(B55:B56),"")</f>
         <v/>
       </c>
-      <c r="C56" s="7" t="str">
-        <f>IFERROR(AVERAGE(C53:C54),"")</f>
+      <c r="C58" s="7" t="str">
+        <f>IFERROR(AVERAGE(C55:C56),"")</f>
         <v/>
       </c>
-      <c r="D56" s="7" t="str">
-        <f>IFERROR(AVERAGE(D53:D54),"")</f>
+      <c r="D58" s="7" t="str">
+        <f>IFERROR(AVERAGE(D55:D56),"")</f>
         <v/>
       </c>
-      <c r="E56" s="7" t="str">
-        <f>IFERROR(AVERAGE(E53:E54),"")</f>
+      <c r="E58" s="7" t="str">
+        <f>IFERROR(AVERAGE(E55:E56),"")</f>
         <v/>
       </c>
-      <c r="F56" s="7">
-        <f>IFERROR(AVERAGE(F53:F54),"")</f>
+      <c r="F58" s="7">
+        <f>IFERROR(AVERAGE(F55:F56),"")</f>
         <v>711.31</v>
       </c>
-      <c r="G56" s="7">
-        <f>IFERROR(AVERAGE(G53:G54),"")</f>
+      <c r="G58" s="7">
+        <f>IFERROR(AVERAGE(G55:G56),"")</f>
         <v>719.7</v>
       </c>
-      <c r="H56" s="7">
-        <f>IFERROR(AVERAGE(H53:H54),"")</f>
+      <c r="H58" s="7">
+        <f>IFERROR(AVERAGE(H55:H56),"")</f>
         <v>7663.68</v>
       </c>
-      <c r="I56" s="7">
-        <f>IFERROR(AVERAGE(I53:I54),"")</f>
+      <c r="I58" s="7">
+        <f>IFERROR(AVERAGE(I55:I56),"")</f>
         <v>4452.6</v>
       </c>
-      <c r="J56" s="7">
-        <f>IFERROR(AVERAGE(J53:J54),"")</f>
+      <c r="J58" s="7">
+        <f>IFERROR(AVERAGE(J55:J56),"")</f>
         <v>1123.715</v>
       </c>
-      <c r="K56" s="7" t="str">
-        <f>IFERROR(AVERAGE(K53:K54),"")</f>
+      <c r="K58" s="7">
+        <f>IFERROR(AVERAGE(K55:K56),"")</f>
+        <v>6328.65</v>
+      </c>
+      <c r="L58" s="7" t="str">
+        <f>IFERROR(AVERAGE(L55:L56),"")</f>
         <v/>
       </c>
-      <c r="L56" s="7" t="str">
-        <f>IFERROR(AVERAGE(L53:L54),"")</f>
+      <c r="M58" s="7" t="str">
+        <f>IFERROR(AVERAGE(M55:M56),"")</f>
         <v/>
       </c>
-      <c r="M56" s="7" t="str">
-        <f>IFERROR(AVERAGE(M53:M54),"")</f>
-        <v/>
-      </c>
-      <c r="N56" s="9">
-        <f>IFERROR(AVERAGE(N53:N54),"")</f>
-        <v>7897.36</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16">
-      <c r="A59" s="12" t="s">
+      <c r="N58" s="9">
+        <f>IFERROR(AVERAGE(N55:N56),"")</f>
+        <v>11061.685</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16">
+      <c r="A61" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B59" s="13">
-        <v>292467.91</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16">
-      <c r="A60" s="14" t="s">
+      <c r="B61" s="13">
+        <v>309652.44</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
+      <c r="A62" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B60" s="15">
-        <v>146706.6</v>
+      <c r="B62" s="15">
+        <v>181269.86</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A15:N15"/>
-    <mergeCell ref="A26:N26"/>
-    <mergeCell ref="A34:N34"/>
-    <mergeCell ref="A44:N44"/>
-    <mergeCell ref="A51:N51"/>
+    <mergeCell ref="A27:N27"/>
+    <mergeCell ref="A35:N35"/>
+    <mergeCell ref="A46:N46"/>
+    <mergeCell ref="A53:N53"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2292,10 +2348,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AK29"/>
+  <dimension ref="A1:AK32"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="AK29" sqref="AK29"/>
+      <selection activeCell="AK32" sqref="AK32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2556,7 +2612,7 @@
     </row>
     <row r="4" spans="1:37">
       <c r="A4" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="4"/>
@@ -2598,7 +2654,7 @@
       <c r="AA4" s="16"/>
       <c r="AB4" s="16"/>
       <c r="AC4" s="16">
-        <v>73.0</v>
+        <v>308.0</v>
       </c>
       <c r="AD4" s="16"/>
       <c r="AE4" s="16"/>
@@ -2685,7 +2741,9 @@
       <c r="Z6" s="16"/>
       <c r="AA6" s="16"/>
       <c r="AB6" s="16"/>
-      <c r="AC6" s="16"/>
+      <c r="AC6" s="16">
+        <v>300.0</v>
+      </c>
       <c r="AD6" s="16"/>
       <c r="AE6" s="16"/>
       <c r="AF6" s="16"/>
@@ -2740,7 +2798,7 @@
     </row>
     <row r="8" spans="1:37">
       <c r="A8" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="4"/>
@@ -2757,9 +2815,7 @@
       <c r="N8" s="16"/>
       <c r="O8" s="16"/>
       <c r="P8" s="16"/>
-      <c r="Q8" s="16">
-        <v>1.0</v>
-      </c>
+      <c r="Q8" s="16"/>
       <c r="R8" s="16"/>
       <c r="S8" s="16"/>
       <c r="T8" s="16"/>
@@ -2768,12 +2824,12 @@
       <c r="W8" s="16"/>
       <c r="X8" s="16"/>
       <c r="Y8" s="16"/>
-      <c r="Z8" s="16"/>
+      <c r="Z8" s="16">
+        <v>1.0</v>
+      </c>
       <c r="AA8" s="16"/>
       <c r="AB8" s="16"/>
-      <c r="AC8" s="16">
-        <v>2.0</v>
-      </c>
+      <c r="AC8" s="16"/>
       <c r="AD8" s="16"/>
       <c r="AE8" s="16"/>
       <c r="AF8" s="16"/>
@@ -2784,333 +2840,325 @@
       <c r="AK8" s="16"/>
     </row>
     <row r="9" spans="1:37">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="16"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="16"/>
+      <c r="Y9" s="16"/>
+      <c r="Z9" s="16"/>
+      <c r="AA9" s="16"/>
+      <c r="AB9" s="16"/>
+      <c r="AC9" s="16">
+        <v>2.0</v>
+      </c>
+      <c r="AD9" s="16"/>
+      <c r="AE9" s="16"/>
+      <c r="AF9" s="16"/>
+      <c r="AG9" s="16"/>
+      <c r="AH9" s="16"/>
+      <c r="AI9" s="16"/>
+      <c r="AJ9" s="16"/>
+      <c r="AK9" s="16"/>
+    </row>
+    <row r="10" spans="1:37">
+      <c r="A10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="17">
+      <c r="B10" s="17"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="17">
         <v>5.0</v>
       </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17">
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17">
         <v>57.0</v>
       </c>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17">
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17">
         <v>71.0</v>
       </c>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17">
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17">
         <v>599.0</v>
       </c>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17"/>
-      <c r="W9" s="17">
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17">
         <v>176.0</v>
       </c>
-      <c r="X9" s="17"/>
-      <c r="Y9" s="17"/>
-      <c r="Z9" s="17">
-        <v>1085.0</v>
-      </c>
-      <c r="AA9" s="17"/>
-      <c r="AB9" s="17"/>
-      <c r="AC9" s="17">
-        <v>75.0</v>
-      </c>
-      <c r="AD9" s="17"/>
-      <c r="AE9" s="17"/>
-      <c r="AF9" s="17"/>
-      <c r="AG9" s="17"/>
-      <c r="AH9" s="17"/>
-      <c r="AI9" s="17"/>
-      <c r="AJ9" s="17"/>
-      <c r="AK9" s="17"/>
-    </row>
-    <row r="11" spans="1:37">
-      <c r="A11" s="10" t="s">
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="17">
+        <v>1086.0</v>
+      </c>
+      <c r="AA10" s="17"/>
+      <c r="AB10" s="17"/>
+      <c r="AC10" s="17">
+        <v>610.0</v>
+      </c>
+      <c r="AD10" s="17"/>
+      <c r="AE10" s="17"/>
+      <c r="AF10" s="17"/>
+      <c r="AG10" s="17"/>
+      <c r="AH10" s="17"/>
+      <c r="AI10" s="17"/>
+      <c r="AJ10" s="17"/>
+      <c r="AK10" s="17"/>
+    </row>
+    <row r="12" spans="1:37">
+      <c r="A12" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="16"/>
-      <c r="W11" s="16"/>
-      <c r="X11" s="16"/>
-      <c r="Y11" s="16"/>
-      <c r="Z11" s="16"/>
-      <c r="AA11" s="16"/>
-      <c r="AB11" s="16"/>
-      <c r="AC11" s="16"/>
-      <c r="AD11" s="16"/>
-      <c r="AE11" s="16"/>
-      <c r="AF11" s="16"/>
-      <c r="AG11" s="16"/>
-      <c r="AH11" s="16"/>
-      <c r="AI11" s="16"/>
-      <c r="AJ11" s="16"/>
-      <c r="AK11" s="16"/>
-    </row>
-    <row r="12" spans="1:37">
-      <c r="A12" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>2</v>
-      </c>
+      <c r="B12" s="16"/>
       <c r="C12" s="4"/>
       <c r="D12" s="16"/>
-      <c r="E12" s="11" t="s">
-        <v>3</v>
-      </c>
+      <c r="E12" s="16"/>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
-      <c r="H12" s="11" t="s">
-        <v>4</v>
-      </c>
+      <c r="H12" s="16"/>
       <c r="I12" s="16"/>
       <c r="J12" s="4"/>
-      <c r="K12" s="11" t="s">
-        <v>5</v>
-      </c>
+      <c r="K12" s="16"/>
       <c r="L12" s="16"/>
       <c r="M12" s="16"/>
-      <c r="N12" s="11" t="s">
-        <v>6</v>
-      </c>
+      <c r="N12" s="16"/>
       <c r="O12" s="16"/>
       <c r="P12" s="16"/>
-      <c r="Q12" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="Q12" s="16"/>
       <c r="R12" s="16"/>
       <c r="S12" s="16"/>
-      <c r="T12" s="11" t="s">
-        <v>8</v>
-      </c>
+      <c r="T12" s="16"/>
       <c r="U12" s="16"/>
       <c r="V12" s="16"/>
-      <c r="W12" s="11" t="s">
-        <v>9</v>
-      </c>
+      <c r="W12" s="16"/>
       <c r="X12" s="16"/>
       <c r="Y12" s="16"/>
-      <c r="Z12" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="Z12" s="16"/>
       <c r="AA12" s="16"/>
       <c r="AB12" s="16"/>
-      <c r="AC12" s="11" t="s">
-        <v>11</v>
-      </c>
+      <c r="AC12" s="16"/>
       <c r="AD12" s="16"/>
       <c r="AE12" s="16"/>
-      <c r="AF12" s="11" t="s">
-        <v>12</v>
-      </c>
+      <c r="AF12" s="16"/>
       <c r="AG12" s="16"/>
       <c r="AH12" s="16"/>
-      <c r="AI12" s="11" t="s">
-        <v>13</v>
-      </c>
+      <c r="AI12" s="16"/>
       <c r="AJ12" s="16"/>
       <c r="AK12" s="16"/>
     </row>
     <row r="13" spans="1:37">
-      <c r="A13" s="4"/>
-      <c r="B13" s="16" t="s">
+      <c r="A13" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" s="16"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="X13" s="16"/>
+      <c r="Y13" s="16"/>
+      <c r="Z13" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA13" s="16"/>
+      <c r="AB13" s="16"/>
+      <c r="AC13" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD13" s="16"/>
+      <c r="AE13" s="16"/>
+      <c r="AF13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG13" s="16"/>
+      <c r="AH13" s="16"/>
+      <c r="AI13" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ13" s="16"/>
+      <c r="AK13" s="16"/>
+    </row>
+    <row r="14" spans="1:37">
+      <c r="A14" s="4"/>
+      <c r="B14" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C14" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D14" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E14" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F14" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G14" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="H14" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="I13" s="16" t="s">
+      <c r="I14" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="16" t="s">
+      <c r="J14" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="K13" s="16" t="s">
+      <c r="K14" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="L13" s="16" t="s">
+      <c r="L14" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="M13" s="16" t="s">
+      <c r="M14" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="N13" s="16" t="s">
+      <c r="N14" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="O13" s="16" t="s">
+      <c r="O14" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="P13" s="16" t="s">
+      <c r="P14" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="Q13" s="16" t="s">
+      <c r="Q14" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="R13" s="16" t="s">
+      <c r="R14" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="S13" s="16" t="s">
+      <c r="S14" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="T13" s="16" t="s">
+      <c r="T14" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="U13" s="16" t="s">
+      <c r="U14" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="V13" s="16" t="s">
+      <c r="V14" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="W13" s="16" t="s">
+      <c r="W14" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="X13" s="16" t="s">
+      <c r="X14" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="Y13" s="16" t="s">
+      <c r="Y14" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="Z13" s="16" t="s">
+      <c r="Z14" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="AA13" s="16" t="s">
+      <c r="AA14" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="AB13" s="16" t="s">
+      <c r="AB14" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="AC13" s="16" t="s">
+      <c r="AC14" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="AD13" s="16" t="s">
+      <c r="AD14" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="AE13" s="16" t="s">
+      <c r="AE14" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="AF13" s="16" t="s">
+      <c r="AF14" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="AG13" s="16" t="s">
+      <c r="AG14" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="AH13" s="16" t="s">
+      <c r="AH14" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="AI13" s="16" t="s">
+      <c r="AI14" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="AJ13" s="16" t="s">
+      <c r="AJ14" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="AK13" s="16" t="s">
+      <c r="AK14" s="16" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="14" spans="1:37">
-      <c r="A14" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="16">
-        <v>3.0</v>
-      </c>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16">
-        <v>12.0</v>
-      </c>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16">
-        <v>12.0</v>
-      </c>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="16">
-        <v>92.0</v>
-      </c>
-      <c r="U14" s="16"/>
-      <c r="V14" s="16"/>
-      <c r="W14" s="16">
-        <v>102.0</v>
-      </c>
-      <c r="X14" s="16"/>
-      <c r="Y14" s="16"/>
-      <c r="Z14" s="16"/>
-      <c r="AA14" s="16"/>
-      <c r="AB14" s="16"/>
-      <c r="AC14" s="16">
-        <v>17.0</v>
-      </c>
-      <c r="AD14" s="16"/>
-      <c r="AE14" s="16"/>
-      <c r="AF14" s="16"/>
-      <c r="AG14" s="16"/>
-      <c r="AH14" s="16"/>
-      <c r="AI14" s="16"/>
-      <c r="AJ14" s="16"/>
-      <c r="AK14" s="16"/>
     </row>
     <row r="15" spans="1:37">
       <c r="A15" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B15" s="16"/>
       <c r="C15" s="4"/>
@@ -3121,25 +3169,37 @@
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="16"/>
+      <c r="K15" s="16">
+        <v>3.0</v>
+      </c>
       <c r="L15" s="16"/>
       <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
+      <c r="N15" s="16">
+        <v>12.0</v>
+      </c>
       <c r="O15" s="16"/>
       <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
+      <c r="Q15" s="16">
+        <v>12.0</v>
+      </c>
       <c r="R15" s="16"/>
       <c r="S15" s="16"/>
-      <c r="T15" s="16"/>
+      <c r="T15" s="16">
+        <v>92.0</v>
+      </c>
       <c r="U15" s="16"/>
       <c r="V15" s="16"/>
-      <c r="W15" s="16"/>
+      <c r="W15" s="16">
+        <v>102.0</v>
+      </c>
       <c r="X15" s="16"/>
       <c r="Y15" s="16"/>
       <c r="Z15" s="16"/>
       <c r="AA15" s="16"/>
       <c r="AB15" s="16"/>
-      <c r="AC15" s="16"/>
+      <c r="AC15" s="16">
+        <v>99.0</v>
+      </c>
       <c r="AD15" s="16"/>
       <c r="AE15" s="16"/>
       <c r="AF15" s="16"/>
@@ -3151,7 +3211,7 @@
     </row>
     <row r="16" spans="1:37">
       <c r="A16" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" s="16"/>
       <c r="C16" s="4"/>
@@ -3177,9 +3237,7 @@
       <c r="W16" s="16"/>
       <c r="X16" s="16"/>
       <c r="Y16" s="16"/>
-      <c r="Z16" s="16">
-        <v>200.0</v>
-      </c>
+      <c r="Z16" s="16"/>
       <c r="AA16" s="16"/>
       <c r="AB16" s="16"/>
       <c r="AC16" s="16"/>
@@ -3194,7 +3252,7 @@
     </row>
     <row r="17" spans="1:37">
       <c r="A17" s="4" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B17" s="16"/>
       <c r="C17" s="4"/>
@@ -3220,7 +3278,9 @@
       <c r="W17" s="16"/>
       <c r="X17" s="16"/>
       <c r="Y17" s="16"/>
-      <c r="Z17" s="16"/>
+      <c r="Z17" s="16">
+        <v>200.0</v>
+      </c>
       <c r="AA17" s="16"/>
       <c r="AB17" s="16"/>
       <c r="AC17" s="16"/>
@@ -3235,7 +3295,7 @@
     </row>
     <row r="18" spans="1:37">
       <c r="A18" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="4"/>
@@ -3275,372 +3335,362 @@
       <c r="AK18" s="16"/>
     </row>
     <row r="19" spans="1:37">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="16"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="16"/>
+      <c r="W19" s="16"/>
+      <c r="X19" s="16"/>
+      <c r="Y19" s="16"/>
+      <c r="Z19" s="16"/>
+      <c r="AA19" s="16"/>
+      <c r="AB19" s="16"/>
+      <c r="AC19" s="16"/>
+      <c r="AD19" s="16"/>
+      <c r="AE19" s="16"/>
+      <c r="AF19" s="16"/>
+      <c r="AG19" s="16"/>
+      <c r="AH19" s="16"/>
+      <c r="AI19" s="16"/>
+      <c r="AJ19" s="16"/>
+      <c r="AK19" s="16"/>
+    </row>
+    <row r="20" spans="1:37">
+      <c r="A20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="16"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="16"/>
+      <c r="T20" s="16"/>
+      <c r="U20" s="16"/>
+      <c r="V20" s="16"/>
+      <c r="W20" s="16"/>
+      <c r="X20" s="16"/>
+      <c r="Y20" s="16"/>
+      <c r="Z20" s="16"/>
+      <c r="AA20" s="16"/>
+      <c r="AB20" s="16"/>
+      <c r="AC20" s="16"/>
+      <c r="AD20" s="16"/>
+      <c r="AE20" s="16"/>
+      <c r="AF20" s="16"/>
+      <c r="AG20" s="16"/>
+      <c r="AH20" s="16"/>
+      <c r="AI20" s="16"/>
+      <c r="AJ20" s="16"/>
+      <c r="AK20" s="16"/>
+    </row>
+    <row r="21" spans="1:37">
+      <c r="A21" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="17">
+      <c r="B21" s="17"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="17">
         <v>3.0</v>
       </c>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17">
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17">
         <v>12.0</v>
       </c>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17">
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17">
         <v>12.0</v>
       </c>
-      <c r="R19" s="17"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="17">
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="17">
         <v>92.0</v>
       </c>
-      <c r="U19" s="17"/>
-      <c r="V19" s="17"/>
-      <c r="W19" s="17">
+      <c r="U21" s="17"/>
+      <c r="V21" s="17"/>
+      <c r="W21" s="17">
         <v>102.0</v>
       </c>
-      <c r="X19" s="17"/>
-      <c r="Y19" s="17"/>
-      <c r="Z19" s="17">
+      <c r="X21" s="17"/>
+      <c r="Y21" s="17"/>
+      <c r="Z21" s="17">
         <v>200.0</v>
       </c>
-      <c r="AA19" s="17"/>
-      <c r="AB19" s="17"/>
-      <c r="AC19" s="17">
-        <v>17.0</v>
-      </c>
-      <c r="AD19" s="17"/>
-      <c r="AE19" s="17"/>
-      <c r="AF19" s="17"/>
-      <c r="AG19" s="17"/>
-      <c r="AH19" s="17"/>
-      <c r="AI19" s="17"/>
-      <c r="AJ19" s="17"/>
-      <c r="AK19" s="17"/>
-    </row>
-    <row r="21" spans="1:37">
-      <c r="A21" s="10" t="s">
+      <c r="AA21" s="17"/>
+      <c r="AB21" s="17"/>
+      <c r="AC21" s="17">
+        <v>99.0</v>
+      </c>
+      <c r="AD21" s="17"/>
+      <c r="AE21" s="17"/>
+      <c r="AF21" s="17"/>
+      <c r="AG21" s="17"/>
+      <c r="AH21" s="17"/>
+      <c r="AI21" s="17"/>
+      <c r="AJ21" s="17"/>
+      <c r="AK21" s="17"/>
+    </row>
+    <row r="23" spans="1:37">
+      <c r="A23" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="16"/>
-      <c r="S21" s="16"/>
-      <c r="T21" s="16"/>
-      <c r="U21" s="16"/>
-      <c r="V21" s="16"/>
-      <c r="W21" s="16"/>
-      <c r="X21" s="16"/>
-      <c r="Y21" s="16"/>
-      <c r="Z21" s="16"/>
-      <c r="AA21" s="16"/>
-      <c r="AB21" s="16"/>
-      <c r="AC21" s="16"/>
-      <c r="AD21" s="16"/>
-      <c r="AE21" s="16"/>
-      <c r="AF21" s="16"/>
-      <c r="AG21" s="16"/>
-      <c r="AH21" s="16"/>
-      <c r="AI21" s="16"/>
-      <c r="AJ21" s="16"/>
-      <c r="AK21" s="16"/>
-    </row>
-    <row r="22" spans="1:37">
-      <c r="A22" s="11" t="s">
+      <c r="B23" s="16"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="16"/>
+      <c r="T23" s="16"/>
+      <c r="U23" s="16"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="16"/>
+      <c r="X23" s="16"/>
+      <c r="Y23" s="16"/>
+      <c r="Z23" s="16"/>
+      <c r="AA23" s="16"/>
+      <c r="AB23" s="16"/>
+      <c r="AC23" s="16"/>
+      <c r="AD23" s="16"/>
+      <c r="AE23" s="16"/>
+      <c r="AF23" s="16"/>
+      <c r="AG23" s="16"/>
+      <c r="AH23" s="16"/>
+      <c r="AI23" s="16"/>
+      <c r="AJ23" s="16"/>
+      <c r="AK23" s="16"/>
+    </row>
+    <row r="24" spans="1:37">
+      <c r="A24" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B24" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I22" s="16"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="R22" s="16"/>
-      <c r="S22" s="16"/>
-      <c r="T22" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="U22" s="16"/>
-      <c r="V22" s="16"/>
-      <c r="W22" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="X22" s="16"/>
-      <c r="Y22" s="16"/>
-      <c r="Z22" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA22" s="16"/>
-      <c r="AB22" s="16"/>
-      <c r="AC22" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD22" s="16"/>
-      <c r="AE22" s="16"/>
-      <c r="AF22" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG22" s="16"/>
-      <c r="AH22" s="16"/>
-      <c r="AI22" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="AJ22" s="16"/>
-      <c r="AK22" s="16"/>
-    </row>
-    <row r="23" spans="1:37">
-      <c r="A23" s="4"/>
-      <c r="B23" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="H23" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="I23" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="J23" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="K23" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="L23" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="M23" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="N23" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="O23" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="P23" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q23" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="R23" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="S23" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="T23" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="U23" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="V23" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="W23" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="X23" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y23" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z23" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA23" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB23" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC23" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD23" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE23" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF23" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG23" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="AH23" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI23" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="AJ23" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="AK23" s="16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:37">
-      <c r="A24" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="16"/>
       <c r="C24" s="4"/>
       <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
+      <c r="E24" s="11" t="s">
+        <v>3</v>
+      </c>
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
+      <c r="H24" s="11" t="s">
+        <v>4</v>
+      </c>
       <c r="I24" s="16"/>
       <c r="J24" s="4"/>
-      <c r="K24" s="16"/>
+      <c r="K24" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="L24" s="16"/>
       <c r="M24" s="16"/>
-      <c r="N24" s="16">
-        <v>6.0</v>
+      <c r="N24" s="11" t="s">
+        <v>6</v>
       </c>
       <c r="O24" s="16"/>
       <c r="P24" s="16"/>
-      <c r="Q24" s="16">
-        <v>10.0</v>
+      <c r="Q24" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="R24" s="16"/>
       <c r="S24" s="16"/>
-      <c r="T24" s="16">
-        <v>57.0</v>
+      <c r="T24" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="U24" s="16"/>
       <c r="V24" s="16"/>
-      <c r="W24" s="16">
-        <v>63.0</v>
+      <c r="W24" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="X24" s="16"/>
       <c r="Y24" s="16"/>
-      <c r="Z24" s="16">
-        <v>18.0</v>
+      <c r="Z24" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="AA24" s="16"/>
       <c r="AB24" s="16"/>
-      <c r="AC24" s="16"/>
+      <c r="AC24" s="11" t="s">
+        <v>11</v>
+      </c>
       <c r="AD24" s="16"/>
       <c r="AE24" s="16"/>
-      <c r="AF24" s="16"/>
+      <c r="AF24" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="AG24" s="16"/>
       <c r="AH24" s="16"/>
-      <c r="AI24" s="16"/>
+      <c r="AI24" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="AJ24" s="16"/>
       <c r="AK24" s="16"/>
     </row>
     <row r="25" spans="1:37">
-      <c r="A25" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="16"/>
-      <c r="R25" s="16"/>
-      <c r="S25" s="16"/>
-      <c r="T25" s="16"/>
-      <c r="U25" s="16"/>
-      <c r="V25" s="16"/>
-      <c r="W25" s="16"/>
-      <c r="X25" s="16"/>
-      <c r="Y25" s="16"/>
-      <c r="Z25" s="16"/>
-      <c r="AA25" s="16"/>
-      <c r="AB25" s="16"/>
-      <c r="AC25" s="16"/>
-      <c r="AD25" s="16"/>
-      <c r="AE25" s="16"/>
-      <c r="AF25" s="16"/>
-      <c r="AG25" s="16"/>
-      <c r="AH25" s="16"/>
-      <c r="AI25" s="16"/>
-      <c r="AJ25" s="16"/>
-      <c r="AK25" s="16"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="I25" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="J25" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="K25" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="L25" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="M25" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="N25" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="O25" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="P25" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q25" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="R25" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="S25" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="T25" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="U25" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="V25" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="W25" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="X25" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y25" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z25" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA25" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB25" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC25" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD25" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE25" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF25" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG25" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH25" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI25" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ25" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK25" s="16" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="26" spans="1:37">
       <c r="A26" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B26" s="16"/>
       <c r="C26" s="4"/>
@@ -3654,24 +3704,34 @@
       <c r="K26" s="16"/>
       <c r="L26" s="16"/>
       <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
+      <c r="N26" s="16">
+        <v>6.0</v>
+      </c>
       <c r="O26" s="16"/>
       <c r="P26" s="16"/>
-      <c r="Q26" s="16"/>
+      <c r="Q26" s="16">
+        <v>10.0</v>
+      </c>
       <c r="R26" s="16"/>
       <c r="S26" s="16"/>
-      <c r="T26" s="16"/>
+      <c r="T26" s="16">
+        <v>57.0</v>
+      </c>
       <c r="U26" s="16"/>
       <c r="V26" s="16"/>
-      <c r="W26" s="16"/>
+      <c r="W26" s="16">
+        <v>63.0</v>
+      </c>
       <c r="X26" s="16"/>
       <c r="Y26" s="16"/>
       <c r="Z26" s="16">
-        <v>200.0</v>
+        <v>18.0</v>
       </c>
       <c r="AA26" s="16"/>
       <c r="AB26" s="16"/>
-      <c r="AC26" s="16"/>
+      <c r="AC26" s="16">
+        <v>57.0</v>
+      </c>
       <c r="AD26" s="16"/>
       <c r="AE26" s="16"/>
       <c r="AF26" s="16"/>
@@ -3683,7 +3743,7 @@
     </row>
     <row r="27" spans="1:37">
       <c r="A27" s="4" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B27" s="16"/>
       <c r="C27" s="4"/>
@@ -3724,7 +3784,7 @@
     </row>
     <row r="28" spans="1:37">
       <c r="A28" s="4" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B28" s="16"/>
       <c r="C28" s="4"/>
@@ -3750,7 +3810,9 @@
       <c r="W28" s="16"/>
       <c r="X28" s="16"/>
       <c r="Y28" s="16"/>
-      <c r="Z28" s="16"/>
+      <c r="Z28" s="16">
+        <v>200.0</v>
+      </c>
       <c r="AA28" s="16"/>
       <c r="AB28" s="16"/>
       <c r="AC28" s="16"/>
@@ -3764,55 +3826,180 @@
       <c r="AK28" s="16"/>
     </row>
     <row r="29" spans="1:37">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="16"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="16"/>
+      <c r="R29" s="16"/>
+      <c r="S29" s="16"/>
+      <c r="T29" s="16"/>
+      <c r="U29" s="16"/>
+      <c r="V29" s="16"/>
+      <c r="W29" s="16"/>
+      <c r="X29" s="16"/>
+      <c r="Y29" s="16"/>
+      <c r="Z29" s="16"/>
+      <c r="AA29" s="16"/>
+      <c r="AB29" s="16"/>
+      <c r="AC29" s="16"/>
+      <c r="AD29" s="16"/>
+      <c r="AE29" s="16"/>
+      <c r="AF29" s="16"/>
+      <c r="AG29" s="16"/>
+      <c r="AH29" s="16"/>
+      <c r="AI29" s="16"/>
+      <c r="AJ29" s="16"/>
+      <c r="AK29" s="16"/>
+    </row>
+    <row r="30" spans="1:37">
+      <c r="A30" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="16"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="16"/>
+      <c r="R30" s="16"/>
+      <c r="S30" s="16"/>
+      <c r="T30" s="16"/>
+      <c r="U30" s="16"/>
+      <c r="V30" s="16"/>
+      <c r="W30" s="16"/>
+      <c r="X30" s="16"/>
+      <c r="Y30" s="16"/>
+      <c r="Z30" s="16"/>
+      <c r="AA30" s="16"/>
+      <c r="AB30" s="16"/>
+      <c r="AC30" s="16"/>
+      <c r="AD30" s="16"/>
+      <c r="AE30" s="16"/>
+      <c r="AF30" s="16"/>
+      <c r="AG30" s="16"/>
+      <c r="AH30" s="16"/>
+      <c r="AI30" s="16"/>
+      <c r="AJ30" s="16"/>
+      <c r="AK30" s="16"/>
+    </row>
+    <row r="31" spans="1:37">
+      <c r="A31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="16"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="16"/>
+      <c r="S31" s="16"/>
+      <c r="T31" s="16"/>
+      <c r="U31" s="16"/>
+      <c r="V31" s="16"/>
+      <c r="W31" s="16"/>
+      <c r="X31" s="16"/>
+      <c r="Y31" s="16"/>
+      <c r="Z31" s="16"/>
+      <c r="AA31" s="16"/>
+      <c r="AB31" s="16"/>
+      <c r="AC31" s="16"/>
+      <c r="AD31" s="16"/>
+      <c r="AE31" s="16"/>
+      <c r="AF31" s="16"/>
+      <c r="AG31" s="16"/>
+      <c r="AH31" s="16"/>
+      <c r="AI31" s="16"/>
+      <c r="AJ31" s="16"/>
+      <c r="AK31" s="16"/>
+    </row>
+    <row r="32" spans="1:37">
+      <c r="A32" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17">
+      <c r="B32" s="17"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17">
         <v>6.0</v>
       </c>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17">
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17">
         <v>10.0</v>
       </c>
-      <c r="R29" s="17"/>
-      <c r="S29" s="17"/>
-      <c r="T29" s="17">
+      <c r="R32" s="17"/>
+      <c r="S32" s="17"/>
+      <c r="T32" s="17">
         <v>57.0</v>
       </c>
-      <c r="U29" s="17"/>
-      <c r="V29" s="17"/>
-      <c r="W29" s="17">
+      <c r="U32" s="17"/>
+      <c r="V32" s="17"/>
+      <c r="W32" s="17">
         <v>63.0</v>
       </c>
-      <c r="X29" s="17"/>
-      <c r="Y29" s="17"/>
-      <c r="Z29" s="17">
+      <c r="X32" s="17"/>
+      <c r="Y32" s="17"/>
+      <c r="Z32" s="17">
         <v>218.0</v>
       </c>
-      <c r="AA29" s="17"/>
-      <c r="AB29" s="17"/>
-      <c r="AC29" s="17"/>
-      <c r="AD29" s="17"/>
-      <c r="AE29" s="17"/>
-      <c r="AF29" s="17"/>
-      <c r="AG29" s="17"/>
-      <c r="AH29" s="17"/>
-      <c r="AI29" s="17"/>
-      <c r="AJ29" s="17"/>
-      <c r="AK29" s="17"/>
+      <c r="AA32" s="17"/>
+      <c r="AB32" s="17"/>
+      <c r="AC32" s="17">
+        <v>57.0</v>
+      </c>
+      <c r="AD32" s="17"/>
+      <c r="AE32" s="17"/>
+      <c r="AF32" s="17"/>
+      <c r="AG32" s="17"/>
+      <c r="AH32" s="17"/>
+      <c r="AI32" s="17"/>
+      <c r="AJ32" s="17"/>
+      <c r="AK32" s="17"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -3829,32 +4016,32 @@
     <mergeCell ref="AC2:AE2"/>
     <mergeCell ref="AF2:AH2"/>
     <mergeCell ref="AI2:AK2"/>
-    <mergeCell ref="A11:AK11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="Q12:S12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="W12:Y12"/>
-    <mergeCell ref="Z12:AB12"/>
-    <mergeCell ref="AC12:AE12"/>
-    <mergeCell ref="AF12:AH12"/>
-    <mergeCell ref="AI12:AK12"/>
-    <mergeCell ref="A21:AK21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="Q22:S22"/>
-    <mergeCell ref="T22:V22"/>
-    <mergeCell ref="W22:Y22"/>
-    <mergeCell ref="Z22:AB22"/>
-    <mergeCell ref="AC22:AE22"/>
-    <mergeCell ref="AF22:AH22"/>
-    <mergeCell ref="AI22:AK22"/>
+    <mergeCell ref="A12:AK12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="W13:Y13"/>
+    <mergeCell ref="Z13:AB13"/>
+    <mergeCell ref="AC13:AE13"/>
+    <mergeCell ref="AF13:AH13"/>
+    <mergeCell ref="AI13:AK13"/>
+    <mergeCell ref="A23:AK23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="T24:V24"/>
+    <mergeCell ref="W24:Y24"/>
+    <mergeCell ref="Z24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="AF24:AH24"/>
+    <mergeCell ref="AI24:AK24"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
